--- a/2_Formulas_and_Functions/1_Formulas_Intro/1_Formulas_Basics.xlsx
+++ b/2_Formulas_and_Functions/1_Formulas_Intro/1_Formulas_Basics.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\1_Formulas_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF4B4B4-AD9B-4819-B4A7-FDAD8A344C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8124C3B2-3F80-4F1F-83E7-D0DC5946D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="2" r:id="rId1"/>
+    <sheet name="Final" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +34,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>Subtraction</t>
+  </si>
+  <si>
+    <t>Multiplication</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Operator Precendence</t>
+  </si>
+  <si>
+    <t>Equal to</t>
+  </si>
+  <si>
+    <t>Greater than</t>
+  </si>
+  <si>
+    <t>Less than</t>
+  </si>
+  <si>
+    <t>Not equal to</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,19 +380,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54668AE6-8A31-4CB0-BFA9-581007C29CED}">
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <f>10+15</f>
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>10-5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>10*2</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f>10/2</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="b">
+        <f>5=5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="b">
+        <f>5&gt;10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="b">
+        <f>5&lt;10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="b">
+        <f>5&lt;&gt;10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>(10+5)-(5^2)</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>10/2+12</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/2_Formulas_and_Functions/1_Formulas_Intro/1_Formulas_Basics.xlsx
+++ b/2_Formulas_and_Functions/1_Formulas_Intro/1_Formulas_Basics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_and_Functions\1_Formulas_Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8124C3B2-3F80-4F1F-83E7-D0DC5946D7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A2D3A2-FFAC-4980-B2B6-98DA261BD6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="2" r:id="rId1"/>
@@ -383,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54668AE6-8A31-4CB0-BFA9-581007C29CED}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +544,12 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>13-2+(15/3)^2</f>
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
